--- a/com_metrics.xlsx
+++ b/com_metrics.xlsx
@@ -44,6 +44,180 @@
     <t>com.jasml.classes</t>
   </si>
   <si>
+    <t>Attribute_Synthetic</t>
+  </si>
+  <si>
+    <t>Attribute_Synthetic()</t>
+  </si>
+  <si>
+    <t>Method(int, int, int, int, Attribute[])</t>
+  </si>
+  <si>
+    <t>Attribute_InnerClasses.InnerClass</t>
+  </si>
+  <si>
+    <t>InnerClass(int, int, int, int)</t>
+  </si>
+  <si>
+    <t>Attribute_InnerClasses</t>
+  </si>
+  <si>
+    <t>Attribute_InnerClasses(int, int, InnerClass[])</t>
+  </si>
+  <si>
+    <t>Attribute_Code</t>
+  </si>
+  <si>
+    <t>Attribute_Code()</t>
+  </si>
+  <si>
+    <t>Attribute_Code(int, int, int, int, Opcode[], int, ExceptionTableItem[], int, Attribute[])</t>
+  </si>
+  <si>
+    <t>Attribute_Code.Opcode</t>
+  </si>
+  <si>
+    <t>Opcode(int, byte, byte[][])</t>
+  </si>
+  <si>
+    <t>Opcode()</t>
+  </si>
+  <si>
+    <t>Attribute_Code.ExceptionTableItem</t>
+  </si>
+  <si>
+    <t>ExceptionTableItem(int, int, int, int)</t>
+  </si>
+  <si>
+    <t>ConstantPool</t>
+  </si>
+  <si>
+    <t>getConstantPoolCount()</t>
+  </si>
+  <si>
+    <t>ConstantPool(ConstantPoolItem[])</t>
+  </si>
+  <si>
+    <t>getConstant(int)</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>Attribute_Deprecated</t>
+  </si>
+  <si>
+    <t>Attribute_Deprecated()</t>
+  </si>
+  <si>
+    <t>Constant_NameAndType</t>
+  </si>
+  <si>
+    <t>Constant_NameAndType(int, int)</t>
+  </si>
+  <si>
+    <t>Attribute_SourceFile</t>
+  </si>
+  <si>
+    <t>Attribute_SourceFile(int, int)</t>
+  </si>
+  <si>
+    <t>Attribute_LineNumberTable</t>
+  </si>
+  <si>
+    <t>Attribute_LineNumberTable(int, int, LineNumber[])</t>
+  </si>
+  <si>
+    <t>Attribute_LineNumberTable.LineNumber</t>
+  </si>
+  <si>
+    <t>LineNumber(int, int)</t>
+  </si>
+  <si>
+    <t>Constant_Fieldref</t>
+  </si>
+  <si>
+    <t>Constant_Fieldref(int, int)</t>
+  </si>
+  <si>
+    <t>Constant_Double</t>
+  </si>
+  <si>
+    <t>Constant_Double(double)</t>
+  </si>
+  <si>
+    <t>Attribute_ConstantValue</t>
+  </si>
+  <si>
+    <t>Attribute_ConstantValue(int, int)</t>
+  </si>
+  <si>
+    <t>Attribute_LocalVariableTable</t>
+  </si>
+  <si>
+    <t>Attribute_LocalVariableTable(int, int, LocalVariable[])</t>
+  </si>
+  <si>
+    <t>Attribute_LocalVariableTable.LocalVariable</t>
+  </si>
+  <si>
+    <t>LocalVariable(int, int, int, int, int)</t>
+  </si>
+  <si>
+    <t>JavaClass</t>
+  </si>
+  <si>
+    <t>JavaClass()</t>
+  </si>
+  <si>
+    <t>Constant_String</t>
+  </si>
+  <si>
+    <t>Constant_String(int)</t>
+  </si>
+  <si>
+    <t>Constant_Float</t>
+  </si>
+  <si>
+    <t>Constant_Float(float)</t>
+  </si>
+  <si>
+    <t>Constant_Integer</t>
+  </si>
+  <si>
+    <t>Constant_Integer(int)</t>
+  </si>
+  <si>
+    <t>Constant_Class</t>
+  </si>
+  <si>
+    <t>Constant_Class(int)</t>
+  </si>
+  <si>
+    <t>Attribute_Exceptions</t>
+  </si>
+  <si>
+    <t>Attribute_Exceptions(int, int, int[])</t>
+  </si>
+  <si>
+    <t>Constant_InterfaceMethodref</t>
+  </si>
+  <si>
+    <t>Constant_InterfaceMethodref(int, int)</t>
+  </si>
+  <si>
+    <t>Constant_Methodref</t>
+  </si>
+  <si>
+    <t>Constant_Methodref(int, int)</t>
+  </si>
+  <si>
+    <t>ConstantPoolItem</t>
+  </si>
+  <si>
+    <t>ConstantPoolItem(byte)</t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -53,115 +227,25 @@
     <t>Attribute(byte, int)</t>
   </si>
   <si>
-    <t>Attribute_Code</t>
-  </si>
-  <si>
-    <t>Attribute_Code()</t>
-  </si>
-  <si>
-    <t>Attribute_Code(int, int, int, int, Opcode[], int, ExceptionTableItem[], int, Attribute[])</t>
-  </si>
-  <si>
-    <t>Attribute_Code.Opcode</t>
-  </si>
-  <si>
-    <t>Opcode(int, byte, byte[][])</t>
-  </si>
-  <si>
-    <t>Opcode()</t>
-  </si>
-  <si>
-    <t>Attribute_Code.ExceptionTableItem</t>
-  </si>
-  <si>
-    <t>ExceptionTableItem(int, int, int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_ConstantValue</t>
-  </si>
-  <si>
-    <t>Attribute_ConstantValue(int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_Deprecated</t>
-  </si>
-  <si>
-    <t>Attribute_Deprecated()</t>
-  </si>
-  <si>
-    <t>Attribute_Exceptions</t>
-  </si>
-  <si>
-    <t>Attribute_Exceptions(int, int, int[])</t>
-  </si>
-  <si>
-    <t>Attribute_InnerClasses.InnerClass</t>
-  </si>
-  <si>
-    <t>InnerClass(int, int, int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_InnerClasses</t>
-  </si>
-  <si>
-    <t>Attribute_InnerClasses(int, int, InnerClass[])</t>
-  </si>
-  <si>
-    <t>Attribute_LineNumberTable</t>
-  </si>
-  <si>
-    <t>Attribute_LineNumberTable(int, int, LineNumber[])</t>
-  </si>
-  <si>
-    <t>Attribute_LineNumberTable.LineNumber</t>
-  </si>
-  <si>
-    <t>LineNumber(int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_LocalVariableTable</t>
-  </si>
-  <si>
-    <t>Attribute_LocalVariableTable(int, int, LocalVariable[])</t>
-  </si>
-  <si>
-    <t>Attribute_LocalVariableTable.LocalVariable</t>
-  </si>
-  <si>
-    <t>LocalVariable(int, int, int, int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_SourceFile</t>
-  </si>
-  <si>
-    <t>Attribute_SourceFile(int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_Synthetic</t>
-  </si>
-  <si>
-    <t>Attribute_Synthetic()</t>
-  </si>
-  <si>
-    <t>ConstantPool</t>
-  </si>
-  <si>
-    <t>getConstantPoolCount()</t>
-  </si>
-  <si>
-    <t>ConstantPool(ConstantPoolItem[])</t>
-  </si>
-  <si>
-    <t>getConstant(int)</t>
-  </si>
-  <si>
-    <t>toString()</t>
-  </si>
-  <si>
-    <t>ConstantPoolItem</t>
-  </si>
-  <si>
-    <t>ConstantPoolItem(byte)</t>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Field(int, int, int, int, Attribute[])</t>
+  </si>
+  <si>
+    <t>Constant_Utf8</t>
+  </si>
+  <si>
+    <t>Constant_Utf8(String)</t>
+  </si>
+  <si>
+    <t>Constant_Long</t>
+  </si>
+  <si>
+    <t>getValue()</t>
+  </si>
+  <si>
+    <t>Constant_Long(long)</t>
   </si>
   <si>
     <t>Constants</t>
@@ -170,93 +254,405 @@
     <t>Constants()</t>
   </si>
   <si>
-    <t>Constant_Class</t>
-  </si>
-  <si>
-    <t>Constant_Class(int)</t>
-  </si>
-  <si>
-    <t>Constant_Double</t>
-  </si>
-  <si>
-    <t>Constant_Double(double)</t>
-  </si>
-  <si>
-    <t>Constant_Fieldref</t>
-  </si>
-  <si>
-    <t>Constant_Fieldref(int, int)</t>
-  </si>
-  <si>
-    <t>Constant_Float</t>
-  </si>
-  <si>
-    <t>Constant_Float(float)</t>
-  </si>
-  <si>
-    <t>Constant_Integer</t>
-  </si>
-  <si>
-    <t>Constant_Integer(int)</t>
-  </si>
-  <si>
-    <t>Constant_InterfaceMethodref</t>
-  </si>
-  <si>
-    <t>Constant_InterfaceMethodref(int, int)</t>
-  </si>
-  <si>
-    <t>Constant_Long</t>
-  </si>
-  <si>
-    <t>getValue()</t>
-  </si>
-  <si>
-    <t>Constant_Long(long)</t>
-  </si>
-  <si>
-    <t>Constant_Methodref</t>
-  </si>
-  <si>
-    <t>Constant_Methodref(int, int)</t>
-  </si>
-  <si>
-    <t>Constant_NameAndType</t>
-  </si>
-  <si>
-    <t>Constant_NameAndType(int, int)</t>
-  </si>
-  <si>
-    <t>Constant_String</t>
-  </si>
-  <si>
-    <t>Constant_String(int)</t>
-  </si>
-  <si>
-    <t>Constant_Utf8</t>
-  </si>
-  <si>
-    <t>Constant_Utf8(String)</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Field(int, int, int, int, Attribute[])</t>
-  </si>
-  <si>
-    <t>JavaClass</t>
-  </si>
-  <si>
-    <t>JavaClass()</t>
-  </si>
-  <si>
-    <t>Method(int, int, int, int, Attribute[])</t>
+    <t>com.jasml.decompiler</t>
+  </si>
+  <si>
+    <t>SourceCodeBuilder</t>
+  </si>
+  <si>
+    <t>toString(Attribute_SourceFile)</t>
+  </si>
+  <si>
+    <t>toString(Method)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_Synthetic)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_Deprecated)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Double)</t>
+  </si>
+  <si>
+    <t>SourceCodeBuilder(SourceCodeBuilderConfiguration)</t>
+  </si>
+  <si>
+    <t>toString(Constant_NameAndType)</t>
+  </si>
+  <si>
+    <t>getLocalVariableName(int, int, Attribute_LocalVariableTable.LocalVariable[])</t>
+  </si>
+  <si>
+    <t>toString(Constant_Utf8)</t>
+  </si>
+  <si>
+    <t>toString(Attribute)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Class)</t>
+  </si>
+  <si>
+    <t>toString(JavaClass)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_Code, HashSet)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_InnerClasses)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_ConstantValue)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Float)</t>
+  </si>
+  <si>
+    <t>toString(ConstantPoolItem)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Methodref)</t>
+  </si>
+  <si>
+    <t>toString_Static(JavaClass)</t>
+  </si>
+  <si>
+    <t>toString(Field)</t>
+  </si>
+  <si>
+    <t>calculateReferences(Method)</t>
+  </si>
+  <si>
+    <t>toString(Constant_String)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Long)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Integer)</t>
+  </si>
+  <si>
+    <t>findPreviousInstruction(int, Attribute_Code.Opcode[])</t>
+  </si>
+  <si>
+    <t>toString(Attribute_LocalVariableTable, Attribute_Code.Opcode[])</t>
+  </si>
+  <si>
+    <t>toString(Attribute_LineNumberTable)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Fieldref)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_Exceptions)</t>
+  </si>
+  <si>
+    <t>SourceCodeBuilder()</t>
+  </si>
+  <si>
+    <t>toString(Constant_InterfaceMethodref)</t>
+  </si>
+  <si>
+    <t>JavaClassParser</t>
+  </si>
+  <si>
+    <t>readField(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readLineNumber(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readConstant_Pool_Count()</t>
+  </si>
+  <si>
+    <t>readLocalVariable(DataInputStream)</t>
+  </si>
+  <si>
+    <t>prt(Object)</t>
+  </si>
+  <si>
+    <t>readExceptionTableItem(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readAccess_flags()</t>
+  </si>
+  <si>
+    <t>parseClass(File)</t>
+  </si>
+  <si>
+    <t>readVersion()</t>
+  </si>
+  <si>
+    <t>readAttribute(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readMethods()</t>
+  </si>
+  <si>
+    <t>readAttributes()</t>
+  </si>
+  <si>
+    <t>readMagic()</t>
+  </si>
+  <si>
+    <t>readFields()</t>
+  </si>
+  <si>
+    <t>readConstantPool()</t>
+  </si>
+  <si>
+    <t>readInnerClass(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readSuper_class()</t>
+  </si>
+  <si>
+    <t>readMethod(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readInterfaces()</t>
+  </si>
+  <si>
+    <t>parseOpcodes(byte[])</t>
+  </si>
+  <si>
+    <t>readThis_class()</t>
+  </si>
+  <si>
+    <t>SourceCodeBuilderConfiguration</t>
+  </si>
+  <si>
+    <t>SourceCodeBuilderConfiguration(boolean, boolean, boolean, boolean)</t>
+  </si>
+  <si>
+    <t>SourceCodeBuilderConfiguration()</t>
+  </si>
+  <si>
+    <t>com.jasml.helper</t>
+  </si>
+  <si>
+    <t>Util</t>
+  </si>
+  <si>
+    <t>getUnicodeChar(char)</t>
+  </si>
+  <si>
+    <t>accessFlagToString_Method(short)</t>
+  </si>
+  <si>
+    <t>getSignedNum(byte[])</t>
+  </si>
+  <si>
+    <t>constantClassToString(String)</t>
+  </si>
+  <si>
+    <t>hasMethodBody(short)</t>
+  </si>
+  <si>
+    <t>toInnerParameterTypes(String)</t>
+  </si>
+  <si>
+    <t>descriptorToString(String)</t>
+  </si>
+  <si>
+    <t>getNum(byte[])</t>
+  </si>
+  <si>
+    <t>toInnerType(String)</t>
+  </si>
+  <si>
+    <t>methodParameterToString(String)</t>
+  </si>
+  <si>
+    <t>getPrimitiveTypeCode(String)</t>
+  </si>
+  <si>
+    <t>toViewableString(String)</t>
+  </si>
+  <si>
+    <t>isDigit(String)</t>
+  </si>
+  <si>
+    <t>accessFlagToString_Field(short)</t>
+  </si>
+  <si>
+    <t>toInnerClassName(String)</t>
+  </si>
+  <si>
+    <t>getInnerMethodDescriptor(String, String)</t>
+  </si>
+  <si>
+    <t>getBytes(int, int)</t>
+  </si>
+  <si>
+    <t>parseViewableString(String)</t>
+  </si>
+  <si>
+    <t>getAccessFlag_Class(String)</t>
+  </si>
+  <si>
+    <t>getAccessFlag_Field(String)</t>
+  </si>
+  <si>
+    <t>getAccessFlag_Method(String)</t>
+  </si>
+  <si>
+    <t>padChar(String, int, char)</t>
+  </si>
+  <si>
+    <t>main(String[])</t>
+  </si>
+  <si>
+    <t>accessFlagToString_Class(short)</t>
+  </si>
+  <si>
+    <t>OpcodeInfo</t>
+  </si>
+  <si>
+    <t>OpcodeInfo()</t>
+  </si>
+  <si>
+    <t>IntegerArray</t>
+  </si>
+  <si>
+    <t>getAll()</t>
+  </si>
+  <si>
+    <t>IntegerArray(int)</t>
+  </si>
+  <si>
+    <t>add(int)</t>
+  </si>
+  <si>
+    <t>OpcodeLoader</t>
+  </si>
+  <si>
+    <t>prt(String)</t>
+  </si>
+  <si>
+    <t>processOpcode(Node)</t>
+  </si>
+  <si>
+    <t>loadOpcodes()</t>
+  </si>
+  <si>
+    <t>pr(String)</t>
+  </si>
+  <si>
+    <t>OpcodeHelper</t>
+  </si>
+  <si>
+    <t>getOpcodeInfo(byte)</t>
+  </si>
+  <si>
+    <t>getOpcodeInfo(String)</t>
   </si>
   <si>
     <t>com.jasml.compiler</t>
   </si>
   <si>
+    <t>SourceCodeParser</t>
+  </si>
+  <si>
+    <t>parseLocalVariableTable(String, Hashtable)</t>
+  </si>
+  <si>
+    <t>parseClass()</t>
+  </si>
+  <si>
+    <t>SourceCodeParser.OpcodeWrapper</t>
+  </si>
+  <si>
+    <t>OpcodeWrapper(Attribute_Code.Opcode)</t>
+  </si>
+  <si>
+    <t>parseMethodSignature(Method, ArrayList)</t>
+  </si>
+  <si>
+    <t>parseDouble(String)</t>
+  </si>
+  <si>
+    <t>SourceCodeParser.LabeledInstructions</t>
+  </si>
+  <si>
+    <t>LabeledInstructions(Attribute_Code.Opcode[], Hashtable, int)</t>
+  </si>
+  <si>
+    <t>parseMethod()</t>
+  </si>
+  <si>
+    <t>SourceCodeParser(File)</t>
+  </si>
+  <si>
+    <t>parseAttribute()</t>
+  </si>
+  <si>
+    <t>OpcodeWrapper(int, byte, byte[][], Object)</t>
+  </si>
+  <si>
+    <t>parseClassAttributes()</t>
+  </si>
+  <si>
+    <t>exception(Scanner, String)</t>
+  </si>
+  <si>
+    <t>parse()</t>
+  </si>
+  <si>
+    <t>parseMajorOrMinor()</t>
+  </si>
+  <si>
+    <t>updateLabelLinks(Hashtable, ArrayList)</t>
+  </si>
+  <si>
+    <t>parseField()</t>
+  </si>
+  <si>
+    <t>SourceCodeParser(String)</t>
+  </si>
+  <si>
+    <t>parseExceptionTable(String, Hashtable)</t>
+  </si>
+  <si>
+    <t>preprocessConstantValues()</t>
+  </si>
+  <si>
+    <t>parseMethodAttributes(Method, ArrayList, LabeledInstructions, Attribute_Code, ArrayList)</t>
+  </si>
+  <si>
+    <t>getOffset(String, Hashtable, boolean)</t>
+  </si>
+  <si>
+    <t>parseLineNumbers(String)</t>
+  </si>
+  <si>
+    <t>parseLong(String)</t>
+  </si>
+  <si>
+    <t>parseInteger(String)</t>
+  </si>
+  <si>
+    <t>parseMethods()</t>
+  </si>
+  <si>
+    <t>parseInnerClasses()</t>
+  </si>
+  <si>
+    <t>parseClassSignature()</t>
+  </si>
+  <si>
+    <t>parseMethodInstructions(Method)</t>
+  </si>
+  <si>
+    <t>parseFloat(String)</t>
+  </si>
+  <si>
+    <t>parseFields()</t>
+  </si>
+  <si>
+    <t>parseMaxStackOrLocals(Attribute_Code)</t>
+  </si>
+  <si>
     <t>ConstantPoolGenerator</t>
   </si>
   <si>
@@ -320,9 +716,6 @@
     <t>lookupLong(long)</t>
   </si>
   <si>
-    <t>main(String[])</t>
-  </si>
-  <si>
     <t>addMethodref(String, String, String, String)</t>
   </si>
   <si>
@@ -335,6 +728,132 @@
     <t>addUtf8(String)</t>
   </si>
   <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>getContent()</t>
+  </si>
+  <si>
+    <t>isSeparatingChar(char)</t>
+  </si>
+  <si>
+    <t>read()</t>
+  </si>
+  <si>
+    <t>getLength()</t>
+  </si>
+  <si>
+    <t>specialNumberType(String)</t>
+  </si>
+  <si>
+    <t>token()</t>
+  </si>
+  <si>
+    <t>tokenType()</t>
+  </si>
+  <si>
+    <t>getLineNumberEnd()</t>
+  </si>
+  <si>
+    <t>setLineNumberOn(boolean)</t>
+  </si>
+  <si>
+    <t>setColumnNumberOn(boolean)</t>
+  </si>
+  <si>
+    <t>isInstruction(String)</t>
+  </si>
+  <si>
+    <t>getColumnNumberEnd()</t>
+  </si>
+  <si>
+    <t>nextToken()</t>
+  </si>
+  <si>
+    <t>Scanner(String)</t>
+  </si>
+  <si>
+    <t>skipSpaces()</t>
+  </si>
+  <si>
+    <t>getLineNumberStart()</t>
+  </si>
+  <si>
+    <t>consumeDigits()</t>
+  </si>
+  <si>
+    <t>Scanner(String, int, int)</t>
+  </si>
+  <si>
+    <t>getColumnNumberStart()</t>
+  </si>
+  <si>
+    <t>partialScanner(char[], int, int, int, int)</t>
+  </si>
+  <si>
+    <t>restore()</t>
+  </si>
+  <si>
+    <t>unread()</t>
+  </si>
+  <si>
+    <t>Scanner()</t>
+  </si>
+  <si>
+    <t>isValidName(String)</t>
+  </si>
+  <si>
+    <t>getOffset()</t>
+  </si>
+  <si>
+    <t>delComment(char[])</t>
+  </si>
+  <si>
+    <t>exception(int, int, int, String)</t>
+  </si>
+  <si>
+    <t>Scanner(File)</t>
+  </si>
+  <si>
+    <t>mark()</t>
+  </si>
+  <si>
+    <t>isAccessFlag(String)</t>
+  </si>
+  <si>
+    <t>TestException</t>
+  </si>
+  <si>
+    <t>TestException()</t>
+  </si>
+  <si>
+    <t>ParsingException</t>
+  </si>
+  <si>
+    <t>ParsingException(String, Exception)</t>
+  </si>
+  <si>
+    <t>ParsingException(int, String)</t>
+  </si>
+  <si>
+    <t>getMessage()</t>
+  </si>
+  <si>
+    <t>ParsingException(int, int, String)</t>
+  </si>
+  <si>
+    <t>ParsingException(String)</t>
+  </si>
+  <si>
+    <t>ParsingException(int, int, int, String)</t>
+  </si>
+  <si>
+    <t>TestException.Test</t>
+  </si>
+  <si>
+    <t>Test()</t>
+  </si>
+  <si>
     <t>GrammerException</t>
   </si>
   <si>
@@ -350,6 +869,12 @@
     <t>GrammerException(String, Exception)</t>
   </si>
   <si>
+    <t>Scannable</t>
+  </si>
+  <si>
+    <t>Scannable()</t>
+  </si>
+  <si>
     <t>JavaClassDumpper</t>
   </si>
   <si>
@@ -381,531 +906,6 @@
   </si>
   <si>
     <t>dumpMethods()</t>
-  </si>
-  <si>
-    <t>ParsingException</t>
-  </si>
-  <si>
-    <t>ParsingException(String, Exception)</t>
-  </si>
-  <si>
-    <t>ParsingException(int, String)</t>
-  </si>
-  <si>
-    <t>getMessage()</t>
-  </si>
-  <si>
-    <t>ParsingException(int, int, String)</t>
-  </si>
-  <si>
-    <t>ParsingException(String)</t>
-  </si>
-  <si>
-    <t>ParsingException(int, int, int, String)</t>
-  </si>
-  <si>
-    <t>Scannable</t>
-  </si>
-  <si>
-    <t>Scannable()</t>
-  </si>
-  <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>getContent()</t>
-  </si>
-  <si>
-    <t>isSeparatingChar(char)</t>
-  </si>
-  <si>
-    <t>read()</t>
-  </si>
-  <si>
-    <t>getLength()</t>
-  </si>
-  <si>
-    <t>specialNumberType(String)</t>
-  </si>
-  <si>
-    <t>token()</t>
-  </si>
-  <si>
-    <t>tokenType()</t>
-  </si>
-  <si>
-    <t>getLineNumberEnd()</t>
-  </si>
-  <si>
-    <t>setLineNumberOn(boolean)</t>
-  </si>
-  <si>
-    <t>setColumnNumberOn(boolean)</t>
-  </si>
-  <si>
-    <t>isInstruction(String)</t>
-  </si>
-  <si>
-    <t>getColumnNumberEnd()</t>
-  </si>
-  <si>
-    <t>nextToken()</t>
-  </si>
-  <si>
-    <t>Scanner(String)</t>
-  </si>
-  <si>
-    <t>skipSpaces()</t>
-  </si>
-  <si>
-    <t>getLineNumberStart()</t>
-  </si>
-  <si>
-    <t>consumeDigits()</t>
-  </si>
-  <si>
-    <t>Scanner(String, int, int)</t>
-  </si>
-  <si>
-    <t>getColumnNumberStart()</t>
-  </si>
-  <si>
-    <t>partialScanner(char[], int, int, int, int)</t>
-  </si>
-  <si>
-    <t>restore()</t>
-  </si>
-  <si>
-    <t>unread()</t>
-  </si>
-  <si>
-    <t>Scanner()</t>
-  </si>
-  <si>
-    <t>isValidName(String)</t>
-  </si>
-  <si>
-    <t>getOffset()</t>
-  </si>
-  <si>
-    <t>delComment(char[])</t>
-  </si>
-  <si>
-    <t>exception(int, int, int, String)</t>
-  </si>
-  <si>
-    <t>Scanner(File)</t>
-  </si>
-  <si>
-    <t>mark()</t>
-  </si>
-  <si>
-    <t>exception(Scanner, String)</t>
-  </si>
-  <si>
-    <t>isAccessFlag(String)</t>
-  </si>
-  <si>
-    <t>SourceCodeParser</t>
-  </si>
-  <si>
-    <t>parseLocalVariableTable(String, Hashtable)</t>
-  </si>
-  <si>
-    <t>parseClass()</t>
-  </si>
-  <si>
-    <t>SourceCodeParser.OpcodeWrapper</t>
-  </si>
-  <si>
-    <t>OpcodeWrapper(Attribute_Code.Opcode)</t>
-  </si>
-  <si>
-    <t>parseMethodSignature(Method, ArrayList)</t>
-  </si>
-  <si>
-    <t>parseDouble(String)</t>
-  </si>
-  <si>
-    <t>SourceCodeParser.LabeledInstructions</t>
-  </si>
-  <si>
-    <t>LabeledInstructions(Attribute_Code.Opcode[], Hashtable, int)</t>
-  </si>
-  <si>
-    <t>parseMethod()</t>
-  </si>
-  <si>
-    <t>SourceCodeParser(File)</t>
-  </si>
-  <si>
-    <t>parseAttribute()</t>
-  </si>
-  <si>
-    <t>OpcodeWrapper(int, byte, byte[][], Object)</t>
-  </si>
-  <si>
-    <t>parseClassAttributes()</t>
-  </si>
-  <si>
-    <t>parse()</t>
-  </si>
-  <si>
-    <t>parseMajorOrMinor()</t>
-  </si>
-  <si>
-    <t>updateLabelLinks(Hashtable, ArrayList)</t>
-  </si>
-  <si>
-    <t>parseField()</t>
-  </si>
-  <si>
-    <t>SourceCodeParser(String)</t>
-  </si>
-  <si>
-    <t>parseExceptionTable(String, Hashtable)</t>
-  </si>
-  <si>
-    <t>preprocessConstantValues()</t>
-  </si>
-  <si>
-    <t>parseMethodAttributes(Method, ArrayList, LabeledInstructions, Attribute_Code, ArrayList)</t>
-  </si>
-  <si>
-    <t>getOffset(String, Hashtable, boolean)</t>
-  </si>
-  <si>
-    <t>parseLineNumbers(String)</t>
-  </si>
-  <si>
-    <t>parseLong(String)</t>
-  </si>
-  <si>
-    <t>parseInteger(String)</t>
-  </si>
-  <si>
-    <t>parseMethods()</t>
-  </si>
-  <si>
-    <t>parseInnerClasses()</t>
-  </si>
-  <si>
-    <t>parseClassSignature()</t>
-  </si>
-  <si>
-    <t>parseMethodInstructions(Method)</t>
-  </si>
-  <si>
-    <t>parseFloat(String)</t>
-  </si>
-  <si>
-    <t>parseFields()</t>
-  </si>
-  <si>
-    <t>parseMaxStackOrLocals(Attribute_Code)</t>
-  </si>
-  <si>
-    <t>TestException.Test</t>
-  </si>
-  <si>
-    <t>Test()</t>
-  </si>
-  <si>
-    <t>TestException</t>
-  </si>
-  <si>
-    <t>TestException()</t>
-  </si>
-  <si>
-    <t>com.jasml.decompiler</t>
-  </si>
-  <si>
-    <t>JavaClassParser</t>
-  </si>
-  <si>
-    <t>readField(DataInputStream)</t>
-  </si>
-  <si>
-    <t>readLineNumber(DataInputStream)</t>
-  </si>
-  <si>
-    <t>readConstant_Pool_Count()</t>
-  </si>
-  <si>
-    <t>readLocalVariable(DataInputStream)</t>
-  </si>
-  <si>
-    <t>prt(Object)</t>
-  </si>
-  <si>
-    <t>readExceptionTableItem(DataInputStream)</t>
-  </si>
-  <si>
-    <t>readAccess_flags()</t>
-  </si>
-  <si>
-    <t>parseClass(File)</t>
-  </si>
-  <si>
-    <t>readVersion()</t>
-  </si>
-  <si>
-    <t>readAttribute(DataInputStream)</t>
-  </si>
-  <si>
-    <t>readMethods()</t>
-  </si>
-  <si>
-    <t>readAttributes()</t>
-  </si>
-  <si>
-    <t>readMagic()</t>
-  </si>
-  <si>
-    <t>readFields()</t>
-  </si>
-  <si>
-    <t>readConstantPool()</t>
-  </si>
-  <si>
-    <t>readInnerClass(DataInputStream)</t>
-  </si>
-  <si>
-    <t>readSuper_class()</t>
-  </si>
-  <si>
-    <t>readMethod(DataInputStream)</t>
-  </si>
-  <si>
-    <t>readInterfaces()</t>
-  </si>
-  <si>
-    <t>parseOpcodes(byte[])</t>
-  </si>
-  <si>
-    <t>readThis_class()</t>
-  </si>
-  <si>
-    <t>SourceCodeBuilder</t>
-  </si>
-  <si>
-    <t>toString(Attribute_SourceFile)</t>
-  </si>
-  <si>
-    <t>toString(Method)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_Synthetic)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_Deprecated)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Double)</t>
-  </si>
-  <si>
-    <t>SourceCodeBuilder(SourceCodeBuilderConfiguration)</t>
-  </si>
-  <si>
-    <t>toString(Constant_NameAndType)</t>
-  </si>
-  <si>
-    <t>getLocalVariableName(int, int, Attribute_LocalVariableTable.LocalVariable[])</t>
-  </si>
-  <si>
-    <t>toString(Constant_Utf8)</t>
-  </si>
-  <si>
-    <t>toString(Attribute)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Class)</t>
-  </si>
-  <si>
-    <t>toString(JavaClass)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_Code, HashSet)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_InnerClasses)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_ConstantValue)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Float)</t>
-  </si>
-  <si>
-    <t>toString(ConstantPoolItem)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Methodref)</t>
-  </si>
-  <si>
-    <t>toString_Static(JavaClass)</t>
-  </si>
-  <si>
-    <t>toString(Field)</t>
-  </si>
-  <si>
-    <t>calculateReferences(Method)</t>
-  </si>
-  <si>
-    <t>toString(Constant_String)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Long)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Integer)</t>
-  </si>
-  <si>
-    <t>findPreviousInstruction(int, Attribute_Code.Opcode[])</t>
-  </si>
-  <si>
-    <t>toString(Attribute_LocalVariableTable, Attribute_Code.Opcode[])</t>
-  </si>
-  <si>
-    <t>toString(Attribute_LineNumberTable)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Fieldref)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_Exceptions)</t>
-  </si>
-  <si>
-    <t>SourceCodeBuilder()</t>
-  </si>
-  <si>
-    <t>toString(Constant_InterfaceMethodref)</t>
-  </si>
-  <si>
-    <t>SourceCodeBuilderConfiguration</t>
-  </si>
-  <si>
-    <t>SourceCodeBuilderConfiguration(boolean, boolean, boolean, boolean)</t>
-  </si>
-  <si>
-    <t>SourceCodeBuilderConfiguration()</t>
-  </si>
-  <si>
-    <t>com.jasml.helper</t>
-  </si>
-  <si>
-    <t>IntegerArray</t>
-  </si>
-  <si>
-    <t>getAll()</t>
-  </si>
-  <si>
-    <t>IntegerArray(int)</t>
-  </si>
-  <si>
-    <t>add(int)</t>
-  </si>
-  <si>
-    <t>OpcodeHelper</t>
-  </si>
-  <si>
-    <t>getOpcodeInfo(byte)</t>
-  </si>
-  <si>
-    <t>getOpcodeInfo(String)</t>
-  </si>
-  <si>
-    <t>OpcodeInfo</t>
-  </si>
-  <si>
-    <t>OpcodeInfo()</t>
-  </si>
-  <si>
-    <t>OpcodeLoader</t>
-  </si>
-  <si>
-    <t>prt(String)</t>
-  </si>
-  <si>
-    <t>processOpcode(Node)</t>
-  </si>
-  <si>
-    <t>loadOpcodes()</t>
-  </si>
-  <si>
-    <t>pr(String)</t>
-  </si>
-  <si>
-    <t>Util</t>
-  </si>
-  <si>
-    <t>getUnicodeChar(char)</t>
-  </si>
-  <si>
-    <t>accessFlagToString_Method(short)</t>
-  </si>
-  <si>
-    <t>getSignedNum(byte[])</t>
-  </si>
-  <si>
-    <t>constantClassToString(String)</t>
-  </si>
-  <si>
-    <t>hasMethodBody(short)</t>
-  </si>
-  <si>
-    <t>toInnerParameterTypes(String)</t>
-  </si>
-  <si>
-    <t>descriptorToString(String)</t>
-  </si>
-  <si>
-    <t>getNum(byte[])</t>
-  </si>
-  <si>
-    <t>toInnerType(String)</t>
-  </si>
-  <si>
-    <t>methodParameterToString(String)</t>
-  </si>
-  <si>
-    <t>getPrimitiveTypeCode(String)</t>
-  </si>
-  <si>
-    <t>toViewableString(String)</t>
-  </si>
-  <si>
-    <t>isDigit(String)</t>
-  </si>
-  <si>
-    <t>accessFlagToString_Field(short)</t>
-  </si>
-  <si>
-    <t>toInnerClassName(String)</t>
-  </si>
-  <si>
-    <t>getInnerMethodDescriptor(String, String)</t>
-  </si>
-  <si>
-    <t>getBytes(int, int)</t>
-  </si>
-  <si>
-    <t>parseViewableString(String)</t>
-  </si>
-  <si>
-    <t>getAccessFlag_Class(String)</t>
-  </si>
-  <si>
-    <t>getAccessFlag_Field(String)</t>
-  </si>
-  <si>
-    <t>getAccessFlag_Method(String)</t>
-  </si>
-  <si>
-    <t>padChar(String, int, char)</t>
-  </si>
-  <si>
-    <t>accessFlagToString_Class(short)</t>
   </si>
 </sst>
 </file>
@@ -956,15 +956,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.7265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.60546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="81.8828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.7109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.28515625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.4765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.5625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.90234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="80.35546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.49609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="10.72265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.29296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.78125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1010,16 +1010,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>31.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="n">
         <v>1.0</v>
@@ -1033,22 +1033,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I3" t="n">
         <v>1.0</v>
@@ -1068,16 +1068,16 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -1091,22 +1091,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>54.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
         <v>2.0</v>
       </c>
       <c r="H5" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
@@ -1120,22 +1120,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
         <v>2.0</v>
       </c>
       <c r="F6" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
@@ -1149,22 +1149,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
         <v>2.0</v>
       </c>
       <c r="F7" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="n">
         <v>1.0</v>
@@ -1178,22 +1178,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
         <v>1.0</v>
@@ -1207,22 +1207,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F9" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
@@ -1245,13 +1245,13 @@
         <v>1.0</v>
       </c>
       <c r="F10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G10" t="n">
         <v>1.0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="n">
         <v>1.0</v>
@@ -1271,16 +1271,16 @@
         <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I11" t="n">
         <v>1.0</v>
@@ -1294,22 +1294,22 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F12" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H12" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
@@ -1323,22 +1323,22 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F13" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H13" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
@@ -1352,25 +1352,25 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F14" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -1381,22 +1381,22 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I15" t="n">
         <v>1.0</v>
@@ -1410,22 +1410,22 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I16" t="n">
         <v>1.0</v>
@@ -1439,22 +1439,22 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F17" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" t="n">
         <v>1.0</v>
@@ -1468,22 +1468,22 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
       </c>
       <c r="F18" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
       <c r="H18" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -1497,22 +1497,22 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
       </c>
       <c r="F19" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -1526,22 +1526,22 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F20" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="H20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
@@ -1555,22 +1555,22 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F21" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
@@ -1584,22 +1584,22 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E22" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F22" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -1613,25 +1613,25 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
       <c r="E23" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F23" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -1642,22 +1642,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F24" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H24" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I24" t="n">
         <v>1.0</v>
@@ -1671,25 +1671,25 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F25" t="n">
-        <v>904.0</v>
+        <v>1.0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -1700,22 +1700,22 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G26" t="n">
         <v>2.0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -1729,22 +1729,22 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F27" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H27" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
@@ -1758,25 +1758,25 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1787,22 +1787,22 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
         <v>2.0</v>
       </c>
       <c r="F29" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G29" t="n">
         <v>2.0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -1816,22 +1816,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E30" t="n">
         <v>2.0</v>
       </c>
       <c r="F30" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G30" t="n">
         <v>2.0</v>
       </c>
       <c r="H30" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
@@ -1845,22 +1845,22 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E31" t="n">
         <v>2.0</v>
       </c>
       <c r="F31" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n">
         <v>2.0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I31" t="n">
         <v>1.0</v>
@@ -1874,22 +1874,22 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E32" t="n">
         <v>2.0</v>
       </c>
       <c r="F32" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G32" t="n">
         <v>2.0</v>
       </c>
       <c r="H32" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
@@ -1903,22 +1903,22 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E33" t="n">
         <v>2.0</v>
       </c>
       <c r="F33" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G33" t="n">
         <v>2.0</v>
       </c>
       <c r="H33" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I33" t="n">
         <v>1.0</v>
@@ -1932,22 +1932,22 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E34" t="n">
         <v>2.0</v>
       </c>
       <c r="F34" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" t="n">
         <v>2.0</v>
       </c>
       <c r="H34" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -1961,22 +1961,22 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E35" t="n">
         <v>2.0</v>
       </c>
       <c r="F35" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G35" t="n">
         <v>2.0</v>
       </c>
       <c r="H35" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
@@ -1990,22 +1990,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E36" t="n">
         <v>2.0</v>
       </c>
       <c r="F36" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G36" t="n">
         <v>2.0</v>
       </c>
       <c r="H36" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I36" t="n">
         <v>1.0</v>
@@ -2019,22 +2019,22 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F37" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I37" t="n">
         <v>1.0</v>
@@ -2048,22 +2048,22 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E38" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F38" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H38" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
@@ -2077,22 +2077,22 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F39" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H39" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I39" t="n">
         <v>1.0</v>
@@ -2109,19 +2109,19 @@
         <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E40" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F40" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I40" t="n">
         <v>1.0</v>
@@ -2135,22 +2135,22 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E41" t="n">
         <v>2.0</v>
       </c>
       <c r="F41" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G41" t="n">
         <v>2.0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
@@ -2164,22 +2164,22 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
         <v>67</v>
       </c>
-      <c r="D42" t="s">
-        <v>47</v>
-      </c>
       <c r="E42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F42" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H42" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I42" t="n">
         <v>1.0</v>
@@ -2193,22 +2193,22 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
         <v>69</v>
       </c>
-      <c r="D43" t="s">
-        <v>70</v>
-      </c>
       <c r="E43" t="n">
         <v>2.0</v>
       </c>
       <c r="F43" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G43" t="n">
         <v>2.0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -2222,22 +2222,22 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E44" t="n">
         <v>2.0</v>
       </c>
       <c r="F44" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G44" t="n">
         <v>2.0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -2257,16 +2257,16 @@
         <v>72</v>
       </c>
       <c r="E45" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F45" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H45" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45" t="n">
         <v>1.0</v>
@@ -2280,22 +2280,22 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E46" t="n">
         <v>2.0</v>
       </c>
       <c r="F46" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" t="n">
         <v>2.0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I46" t="n">
         <v>1.0</v>
@@ -2312,19 +2312,19 @@
         <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="E47" t="n">
         <v>2.0</v>
       </c>
       <c r="F47" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G47" t="n">
         <v>2.0</v>
       </c>
       <c r="H47" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
@@ -2338,22 +2338,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F48" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H48" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I48" t="n">
         <v>1.0</v>
@@ -2370,19 +2370,19 @@
         <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F49" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H49" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49" t="n">
         <v>1.0</v>
@@ -2396,25 +2396,25 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F50" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -2425,25 +2425,25 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
         <v>79</v>
       </c>
       <c r="E51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -2460,16 +2460,16 @@
         <v>82</v>
       </c>
       <c r="E52" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F52" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G52" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H52" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I52" t="n">
         <v>1.0</v>
@@ -2489,19 +2489,19 @@
         <v>83</v>
       </c>
       <c r="E53" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F53" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G53" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I53" t="n">
         <v>10.0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -2518,19 +2518,19 @@
         <v>84</v>
       </c>
       <c r="E54" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F54" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G54" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H54" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I54" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -2547,19 +2547,19 @@
         <v>85</v>
       </c>
       <c r="E55" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F55" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G55" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H55" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I55" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
@@ -2576,19 +2576,19 @@
         <v>86</v>
       </c>
       <c r="E56" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F56" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G56" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H56" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I56" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -2605,19 +2605,19 @@
         <v>87</v>
       </c>
       <c r="E57" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F57" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G57" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H57" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="I57" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -2634,19 +2634,19 @@
         <v>88</v>
       </c>
       <c r="E58" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F58" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G58" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H58" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I58" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
@@ -2663,19 +2663,19 @@
         <v>89</v>
       </c>
       <c r="E59" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F59" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G59" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H59" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I59" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
@@ -2692,19 +2692,19 @@
         <v>90</v>
       </c>
       <c r="E60" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F60" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G60" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H60" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I60" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -2721,19 +2721,19 @@
         <v>91</v>
       </c>
       <c r="E61" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F61" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G61" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H61" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="I61" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="62">
@@ -2750,19 +2750,19 @@
         <v>92</v>
       </c>
       <c r="E62" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F62" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G62" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H62" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="I62" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
@@ -2779,19 +2779,19 @@
         <v>93</v>
       </c>
       <c r="E63" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F63" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G63" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H63" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I63" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="64">
@@ -2808,19 +2808,19 @@
         <v>94</v>
       </c>
       <c r="E64" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F64" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G64" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H64" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="I64" t="n">
-        <v>2.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="65">
@@ -2837,19 +2837,19 @@
         <v>95</v>
       </c>
       <c r="E65" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F65" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G65" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H65" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="I65" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="66">
@@ -2866,19 +2866,19 @@
         <v>96</v>
       </c>
       <c r="E66" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F66" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G66" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H66" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="I66" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
@@ -2895,19 +2895,19 @@
         <v>97</v>
       </c>
       <c r="E67" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F67" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G67" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H67" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I67" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
@@ -2924,19 +2924,19 @@
         <v>98</v>
       </c>
       <c r="E68" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F68" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G68" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H68" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="I68" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="69">
@@ -2953,19 +2953,19 @@
         <v>99</v>
       </c>
       <c r="E69" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F69" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G69" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H69" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="I69" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
@@ -2982,19 +2982,19 @@
         <v>100</v>
       </c>
       <c r="E70" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F70" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G70" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H70" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I70" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -3011,19 +3011,19 @@
         <v>101</v>
       </c>
       <c r="E71" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F71" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G71" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H71" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I71" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="72">
@@ -3040,19 +3040,19 @@
         <v>102</v>
       </c>
       <c r="E72" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F72" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G72" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H72" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="73">
@@ -3069,19 +3069,19 @@
         <v>103</v>
       </c>
       <c r="E73" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F73" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G73" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H73" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="I73" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
@@ -3098,19 +3098,19 @@
         <v>104</v>
       </c>
       <c r="E74" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F74" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G74" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H74" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="I74" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -3127,19 +3127,19 @@
         <v>105</v>
       </c>
       <c r="E75" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F75" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G75" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H75" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I75" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -3156,19 +3156,19 @@
         <v>106</v>
       </c>
       <c r="E76" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F76" t="n">
-        <v>276.0</v>
+        <v>1.0</v>
       </c>
       <c r="G76" t="n">
-        <v>52.0</v>
+        <v>210.0</v>
       </c>
       <c r="H76" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I76" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
@@ -3179,25 +3179,25 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
         <v>107</v>
       </c>
-      <c r="D77" t="s">
-        <v>108</v>
-      </c>
       <c r="E77" t="n">
-        <v>4.0</v>
+        <v>31.0</v>
       </c>
       <c r="F77" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="G77" t="n">
-        <v>4.0</v>
+        <v>210.0</v>
       </c>
       <c r="H77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I77" t="n">
         <v>3.0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="78">
@@ -3208,25 +3208,25 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E78" t="n">
-        <v>4.0</v>
+        <v>31.0</v>
       </c>
       <c r="F78" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="G78" t="n">
-        <v>4.0</v>
+        <v>210.0</v>
       </c>
       <c r="H78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I78" t="n">
         <v>3.0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -3237,22 +3237,22 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E79" t="n">
-        <v>4.0</v>
+        <v>31.0</v>
       </c>
       <c r="F79" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="G79" t="n">
-        <v>4.0</v>
+        <v>210.0</v>
       </c>
       <c r="H79" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I79" t="n">
         <v>1.0</v>
@@ -3266,25 +3266,25 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E80" t="n">
-        <v>4.0</v>
+        <v>31.0</v>
       </c>
       <c r="F80" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="G80" t="n">
-        <v>4.0</v>
+        <v>210.0</v>
       </c>
       <c r="H80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I80" t="n">
         <v>3.0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -3295,25 +3295,25 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E81" t="n">
-        <v>10.0</v>
+        <v>31.0</v>
       </c>
       <c r="F81" t="n">
-        <v>220.0</v>
+        <v>1.0</v>
       </c>
       <c r="G81" t="n">
-        <v>47.0</v>
+        <v>210.0</v>
       </c>
       <c r="H81" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="I81" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -3324,25 +3324,25 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" t="s">
         <v>112</v>
       </c>
-      <c r="D82" t="s">
-        <v>114</v>
-      </c>
       <c r="E82" t="n">
-        <v>10.0</v>
+        <v>31.0</v>
       </c>
       <c r="F82" t="n">
-        <v>220.0</v>
+        <v>1.0</v>
       </c>
       <c r="G82" t="n">
-        <v>47.0</v>
+        <v>210.0</v>
       </c>
       <c r="H82" t="n">
-        <v>87.0</v>
+        <v>1.0</v>
       </c>
       <c r="I82" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -3353,25 +3353,25 @@
         <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E83" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="F83" t="n">
-        <v>220.0</v>
+        <v>1.0</v>
       </c>
       <c r="G83" t="n">
-        <v>47.0</v>
+        <v>91.0</v>
       </c>
       <c r="H83" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I83" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="84">
@@ -3382,22 +3382,22 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E84" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="F84" t="n">
-        <v>220.0</v>
+        <v>1.0</v>
       </c>
       <c r="G84" t="n">
-        <v>47.0</v>
+        <v>91.0</v>
       </c>
       <c r="H84" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I84" t="n">
         <v>1.0</v>
@@ -3411,22 +3411,22 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E85" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="F85" t="n">
-        <v>220.0</v>
+        <v>1.0</v>
       </c>
       <c r="G85" t="n">
-        <v>47.0</v>
+        <v>91.0</v>
       </c>
       <c r="H85" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I85" t="n">
         <v>1.0</v>
@@ -3440,25 +3440,25 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E86" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="F86" t="n">
-        <v>220.0</v>
+        <v>1.0</v>
       </c>
       <c r="G86" t="n">
-        <v>47.0</v>
+        <v>91.0</v>
       </c>
       <c r="H86" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I86" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87">
@@ -3469,25 +3469,25 @@
         <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E87" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="F87" t="n">
-        <v>220.0</v>
+        <v>1.0</v>
       </c>
       <c r="G87" t="n">
-        <v>47.0</v>
+        <v>91.0</v>
       </c>
       <c r="H87" t="n">
-        <v>53.0</v>
+        <v>1.0</v>
       </c>
       <c r="I87" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
@@ -3498,22 +3498,22 @@
         <v>80</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E88" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="F88" t="n">
-        <v>220.0</v>
+        <v>1.0</v>
       </c>
       <c r="G88" t="n">
-        <v>47.0</v>
+        <v>91.0</v>
       </c>
       <c r="H88" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I88" t="n">
         <v>1.0</v>
@@ -3527,25 +3527,25 @@
         <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E89" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="F89" t="n">
-        <v>220.0</v>
+        <v>1.0</v>
       </c>
       <c r="G89" t="n">
-        <v>47.0</v>
+        <v>91.0</v>
       </c>
       <c r="H89" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I89" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
@@ -3556,25 +3556,25 @@
         <v>80</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E90" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="F90" t="n">
-        <v>220.0</v>
+        <v>1.0</v>
       </c>
       <c r="G90" t="n">
-        <v>47.0</v>
+        <v>91.0</v>
       </c>
       <c r="H90" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="I90" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -3585,22 +3585,22 @@
         <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E91" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="F91" t="n">
-        <v>45.0</v>
+        <v>1.0</v>
       </c>
       <c r="G91" t="n">
-        <v>11.0</v>
+        <v>91.0</v>
       </c>
       <c r="H91" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I91" t="n">
         <v>1.0</v>
@@ -3614,25 +3614,25 @@
         <v>80</v>
       </c>
       <c r="C92" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" t="s">
         <v>123</v>
       </c>
-      <c r="D92" t="s">
-        <v>125</v>
-      </c>
       <c r="E92" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="F92" t="n">
-        <v>45.0</v>
+        <v>1.0</v>
       </c>
       <c r="G92" t="n">
-        <v>11.0</v>
+        <v>91.0</v>
       </c>
       <c r="H92" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I92" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="93">
@@ -3643,25 +3643,25 @@
         <v>80</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E93" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="F93" t="n">
-        <v>45.0</v>
+        <v>1.0</v>
       </c>
       <c r="G93" t="n">
-        <v>11.0</v>
+        <v>91.0</v>
       </c>
       <c r="H93" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="I93" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="94">
@@ -3672,25 +3672,25 @@
         <v>80</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E94" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="F94" t="n">
-        <v>45.0</v>
+        <v>1.0</v>
       </c>
       <c r="G94" t="n">
-        <v>11.0</v>
+        <v>91.0</v>
       </c>
       <c r="H94" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I94" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="95">
@@ -3701,22 +3701,22 @@
         <v>80</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E95" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="F95" t="n">
-        <v>45.0</v>
+        <v>1.0</v>
       </c>
       <c r="G95" t="n">
-        <v>11.0</v>
+        <v>91.0</v>
       </c>
       <c r="H95" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I95" t="n">
         <v>1.0</v>
@@ -3730,25 +3730,25 @@
         <v>80</v>
       </c>
       <c r="C96" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E96" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="F96" t="n">
-        <v>45.0</v>
+        <v>1.0</v>
       </c>
       <c r="G96" t="n">
-        <v>11.0</v>
+        <v>91.0</v>
       </c>
       <c r="H96" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I96" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="97">
@@ -3759,25 +3759,25 @@
         <v>80</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D97" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F97" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="98">
@@ -3788,22 +3788,22 @@
         <v>80</v>
       </c>
       <c r="C98" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E98" t="n">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="F98" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G98" t="n">
-        <v>137.0</v>
+        <v>91.0</v>
       </c>
       <c r="H98" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I98" t="n">
         <v>1.0</v>
@@ -3817,22 +3817,22 @@
         <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D99" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E99" t="n">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="F99" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G99" t="n">
-        <v>137.0</v>
+        <v>91.0</v>
       </c>
       <c r="H99" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I99" t="n">
         <v>1.0</v>
@@ -3846,25 +3846,25 @@
         <v>80</v>
       </c>
       <c r="C100" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E100" t="n">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="F100" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G100" t="n">
-        <v>137.0</v>
+        <v>91.0</v>
       </c>
       <c r="H100" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="I100" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="101">
@@ -3875,25 +3875,25 @@
         <v>80</v>
       </c>
       <c r="C101" t="s">
+        <v>113</v>
+      </c>
+      <c r="D101" t="s">
         <v>132</v>
       </c>
-      <c r="D101" t="s">
-        <v>136</v>
-      </c>
       <c r="E101" t="n">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="F101" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G101" t="n">
-        <v>137.0</v>
+        <v>91.0</v>
       </c>
       <c r="H101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I101" t="n">
         <v>3.0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="102">
@@ -3904,25 +3904,25 @@
         <v>80</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D102" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E102" t="n">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="F102" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G102" t="n">
-        <v>137.0</v>
+        <v>91.0</v>
       </c>
       <c r="H102" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="I102" t="n">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="103">
@@ -3933,22 +3933,22 @@
         <v>80</v>
       </c>
       <c r="C103" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E103" t="n">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="F103" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G103" t="n">
-        <v>137.0</v>
+        <v>91.0</v>
       </c>
       <c r="H103" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I103" t="n">
         <v>1.0</v>
@@ -3962,22 +3962,22 @@
         <v>80</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D104" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E104" t="n">
-        <v>32.0</v>
+        <v>2.0</v>
       </c>
       <c r="F104" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G104" t="n">
-        <v>137.0</v>
+        <v>2.0</v>
       </c>
       <c r="H104" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I104" t="n">
         <v>1.0</v>
@@ -3991,22 +3991,22 @@
         <v>80</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E105" t="n">
-        <v>32.0</v>
+        <v>2.0</v>
       </c>
       <c r="F105" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G105" t="n">
-        <v>137.0</v>
+        <v>2.0</v>
       </c>
       <c r="H105" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I105" t="n">
         <v>1.0</v>
@@ -4017,25 +4017,25 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E106" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F106" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G106" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H106" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I106" t="n">
         <v>1.0</v>
@@ -4046,28 +4046,28 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E107" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F107" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G107" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H107" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I107" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="108">
@@ -4075,28 +4075,28 @@
         <v>107.0</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C108" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E108" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F108" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G108" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H108" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I108" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="109">
@@ -4104,28 +4104,28 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E109" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F109" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G109" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H109" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I109" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="110">
@@ -4133,28 +4133,28 @@
         <v>109.0</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C110" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E110" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F110" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G110" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H110" t="n">
-        <v>258.0</v>
+        <v>1.0</v>
       </c>
       <c r="I110" t="n">
-        <v>73.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="111">
@@ -4162,28 +4162,28 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E111" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F111" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G111" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H111" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I111" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="112">
@@ -4191,28 +4191,28 @@
         <v>111.0</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E112" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F112" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G112" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H112" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="I112" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="113">
@@ -4220,28 +4220,28 @@
         <v>112.0</v>
       </c>
       <c r="B113" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E113" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F113" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G113" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H113" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I113" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="114">
@@ -4249,28 +4249,28 @@
         <v>113.0</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E114" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F114" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G114" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H114" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="I114" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="115">
@@ -4278,28 +4278,28 @@
         <v>114.0</v>
       </c>
       <c r="B115" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E115" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F115" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G115" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H115" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I115" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="116">
@@ -4307,28 +4307,28 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C116" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E116" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F116" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G116" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I116" t="n">
         <v>3.0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="117">
@@ -4336,28 +4336,28 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E117" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F117" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G117" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H117" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I117" t="n">
-        <v>1.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="118">
@@ -4365,28 +4365,28 @@
         <v>117.0</v>
       </c>
       <c r="B118" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E118" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F118" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G118" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H118" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I118" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="119">
@@ -4394,28 +4394,28 @@
         <v>118.0</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E119" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F119" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G119" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H119" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I119" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="120">
@@ -4423,28 +4423,28 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E120" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F120" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G120" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H120" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I120" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="121">
@@ -4452,28 +4452,28 @@
         <v>120.0</v>
       </c>
       <c r="B121" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C121" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E121" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F121" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G121" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H121" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="I121" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="122">
@@ -4481,28 +4481,28 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D122" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="E122" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F122" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G122" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H122" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="I122" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="123">
@@ -4510,28 +4510,28 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C123" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D123" t="s">
         <v>157</v>
       </c>
       <c r="E123" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F123" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G123" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H123" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I123" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="124">
@@ -4539,28 +4539,28 @@
         <v>123.0</v>
       </c>
       <c r="B124" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C124" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D124" t="s">
         <v>158</v>
       </c>
       <c r="E124" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F124" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G124" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H124" t="n">
-        <v>47.0</v>
+        <v>1.0</v>
       </c>
       <c r="I124" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="125">
@@ -4568,28 +4568,28 @@
         <v>124.0</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D125" t="s">
         <v>159</v>
       </c>
       <c r="E125" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F125" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G125" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H125" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I125" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="126">
@@ -4597,28 +4597,28 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C126" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D126" t="s">
         <v>160</v>
       </c>
       <c r="E126" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F126" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G126" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H126" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="I126" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="127">
@@ -4626,28 +4626,28 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C127" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D127" t="s">
         <v>161</v>
       </c>
       <c r="E127" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F127" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G127" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H127" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I127" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="128">
@@ -4655,28 +4655,28 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C128" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D128" t="s">
         <v>162</v>
       </c>
       <c r="E128" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F128" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G128" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H128" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I128" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="129">
@@ -4684,28 +4684,28 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D129" t="s">
         <v>163</v>
       </c>
       <c r="E129" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F129" t="n">
-        <v>537.0</v>
+        <v>1.0</v>
       </c>
       <c r="G129" t="n">
-        <v>137.0</v>
+        <v>249.0</v>
       </c>
       <c r="H129" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I129" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="130">
@@ -4713,7 +4713,7 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C130" t="s">
         <v>164</v>
@@ -4722,19 +4722,19 @@
         <v>165</v>
       </c>
       <c r="E130" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="F130" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G130" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="H130" t="n">
-        <v>61.0</v>
+        <v>0.0</v>
       </c>
       <c r="I130" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="131">
@@ -4742,28 +4742,28 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D131" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E131" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="F131" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G131" t="n">
-        <v>300.0</v>
+        <v>4.0</v>
       </c>
       <c r="H131" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
@@ -4771,25 +4771,25 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D132" t="s">
         <v>168</v>
       </c>
       <c r="E132" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F132" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G132" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H132" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I132" t="n">
         <v>1.0</v>
@@ -4800,28 +4800,28 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D133" t="s">
         <v>169</v>
       </c>
       <c r="E133" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="F133" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G133" t="n">
-        <v>300.0</v>
+        <v>4.0</v>
       </c>
       <c r="H133" t="n">
-        <v>57.0</v>
+        <v>1.0</v>
       </c>
       <c r="I133" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="134">
@@ -4829,28 +4829,28 @@
         <v>133.0</v>
       </c>
       <c r="B134" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D134" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E134" t="n">
-        <v>29.0</v>
+        <v>5.0</v>
       </c>
       <c r="F134" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G134" t="n">
-        <v>300.0</v>
+        <v>44.0</v>
       </c>
       <c r="H134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I134" t="n">
         <v>6.0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="135">
@@ -4858,25 +4858,25 @@
         <v>134.0</v>
       </c>
       <c r="B135" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
+        <v>170</v>
+      </c>
+      <c r="D135" t="s">
         <v>171</v>
       </c>
-      <c r="D135" t="s">
-        <v>172</v>
-      </c>
       <c r="E135" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F135" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G135" t="n">
-        <v>1.0</v>
+        <v>44.0</v>
       </c>
       <c r="H135" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I135" t="n">
         <v>1.0</v>
@@ -4887,28 +4887,28 @@
         <v>135.0</v>
       </c>
       <c r="B136" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D136" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E136" t="n">
-        <v>29.0</v>
+        <v>5.0</v>
       </c>
       <c r="F136" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G136" t="n">
-        <v>300.0</v>
+        <v>44.0</v>
       </c>
       <c r="H136" t="n">
-        <v>32.0</v>
+        <v>1.0</v>
       </c>
       <c r="I136" t="n">
-        <v>4.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="137">
@@ -4916,28 +4916,28 @@
         <v>136.0</v>
       </c>
       <c r="B137" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E137" t="n">
-        <v>29.0</v>
+        <v>5.0</v>
       </c>
       <c r="F137" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G137" t="n">
-        <v>300.0</v>
+        <v>44.0</v>
       </c>
       <c r="H137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I137" t="n">
         <v>3.0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="138">
@@ -4945,28 +4945,28 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E138" t="n">
-        <v>29.0</v>
+        <v>5.0</v>
       </c>
       <c r="F138" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G138" t="n">
-        <v>300.0</v>
+        <v>44.0</v>
       </c>
       <c r="H138" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="I138" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="139">
@@ -4974,10 +4974,10 @@
         <v>138.0</v>
       </c>
       <c r="B139" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D139" t="s">
         <v>176</v>
@@ -4986,13 +4986,13 @@
         <v>2.0</v>
       </c>
       <c r="F139" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G139" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H139" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I139" t="n">
         <v>1.0</v>
@@ -5003,28 +5003,28 @@
         <v>139.0</v>
       </c>
       <c r="B140" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D140" t="s">
         <v>177</v>
       </c>
       <c r="E140" t="n">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
       <c r="F140" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G140" t="n">
-        <v>300.0</v>
+        <v>3.0</v>
       </c>
       <c r="H140" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="I140" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="141">
@@ -5032,28 +5032,28 @@
         <v>140.0</v>
       </c>
       <c r="B141" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C141" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D141" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="E141" t="n">
         <v>29.0</v>
       </c>
       <c r="F141" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G141" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H141" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I141" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="142">
@@ -5061,28 +5061,28 @@
         <v>141.0</v>
       </c>
       <c r="B142" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C142" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D142" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="E142" t="n">
         <v>29.0</v>
       </c>
       <c r="F142" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G142" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I142" t="n">
         <v>4.0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="143">
@@ -5090,28 +5090,28 @@
         <v>142.0</v>
       </c>
       <c r="B143" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C143" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D143" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E143" t="n">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
       <c r="F143" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G143" t="n">
-        <v>300.0</v>
+        <v>2.0</v>
       </c>
       <c r="H143" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="I143" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
@@ -5119,28 +5119,28 @@
         <v>143.0</v>
       </c>
       <c r="B144" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C144" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D144" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E144" t="n">
         <v>29.0</v>
       </c>
       <c r="F144" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G144" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H144" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="I144" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="145">
@@ -5148,28 +5148,28 @@
         <v>144.0</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C145" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D145" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E145" t="n">
         <v>29.0</v>
       </c>
       <c r="F145" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G145" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H145" t="n">
-        <v>58.0</v>
+        <v>1.0</v>
       </c>
       <c r="I145" t="n">
-        <v>26.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="146">
@@ -5177,28 +5177,28 @@
         <v>145.0</v>
       </c>
       <c r="B146" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C146" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D146" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E146" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="F146" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G146" t="n">
-        <v>300.0</v>
+        <v>1.0</v>
       </c>
       <c r="H146" t="n">
-        <v>70.0</v>
+        <v>1.0</v>
       </c>
       <c r="I146" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="147">
@@ -5206,28 +5206,28 @@
         <v>146.0</v>
       </c>
       <c r="B147" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C147" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D147" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E147" t="n">
         <v>29.0</v>
       </c>
       <c r="F147" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G147" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H147" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I147" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="148">
@@ -5235,28 +5235,28 @@
         <v>147.0</v>
       </c>
       <c r="B148" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C148" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D148" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E148" t="n">
         <v>29.0</v>
       </c>
       <c r="F148" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G148" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H148" t="n">
-        <v>65.0</v>
+        <v>1.0</v>
       </c>
       <c r="I148" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
@@ -5264,28 +5264,28 @@
         <v>148.0</v>
       </c>
       <c r="B149" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C149" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D149" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E149" t="n">
         <v>29.0</v>
       </c>
       <c r="F149" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G149" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H149" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="I149" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="150">
@@ -5293,28 +5293,28 @@
         <v>149.0</v>
       </c>
       <c r="B150" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C150" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E150" t="n">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
       <c r="F150" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G150" t="n">
-        <v>300.0</v>
+        <v>2.0</v>
       </c>
       <c r="H150" t="n">
-        <v>47.0</v>
+        <v>1.0</v>
       </c>
       <c r="I150" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="151">
@@ -5322,25 +5322,25 @@
         <v>150.0</v>
       </c>
       <c r="B151" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D151" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E151" t="n">
         <v>29.0</v>
       </c>
       <c r="F151" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G151" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H151" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I151" t="n">
         <v>3.0</v>
@@ -5351,25 +5351,25 @@
         <v>151.0</v>
       </c>
       <c r="B152" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C152" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D152" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E152" t="n">
         <v>29.0</v>
       </c>
       <c r="F152" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G152" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H152" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I152" t="n">
         <v>1.0</v>
@@ -5380,28 +5380,28 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C153" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D153" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E153" t="n">
         <v>29.0</v>
       </c>
       <c r="F153" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G153" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H153" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I153" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="154">
@@ -5409,25 +5409,25 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C154" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D154" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E154" t="n">
         <v>29.0</v>
       </c>
       <c r="F154" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G154" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H154" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I154" t="n">
         <v>2.0</v>
@@ -5438,28 +5438,28 @@
         <v>154.0</v>
       </c>
       <c r="B155" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C155" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D155" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E155" t="n">
         <v>29.0</v>
       </c>
       <c r="F155" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G155" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H155" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="I155" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="156">
@@ -5467,28 +5467,28 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C156" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D156" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E156" t="n">
         <v>29.0</v>
       </c>
       <c r="F156" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G156" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H156" t="n">
-        <v>73.0</v>
+        <v>1.0</v>
       </c>
       <c r="I156" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="157">
@@ -5496,28 +5496,28 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C157" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D157" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E157" t="n">
         <v>29.0</v>
       </c>
       <c r="F157" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G157" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H157" t="n">
-        <v>38.0</v>
+        <v>1.0</v>
       </c>
       <c r="I157" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="158">
@@ -5525,28 +5525,28 @@
         <v>157.0</v>
       </c>
       <c r="B158" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C158" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D158" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E158" t="n">
         <v>29.0</v>
       </c>
       <c r="F158" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G158" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H158" t="n">
-        <v>513.0</v>
+        <v>1.0</v>
       </c>
       <c r="I158" t="n">
-        <v>128.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="159">
@@ -5554,28 +5554,28 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C159" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D159" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E159" t="n">
         <v>29.0</v>
       </c>
       <c r="F159" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G159" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H159" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I159" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="160">
@@ -5583,28 +5583,28 @@
         <v>159.0</v>
       </c>
       <c r="B160" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C160" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D160" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E160" t="n">
         <v>29.0</v>
       </c>
       <c r="F160" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G160" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H160" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="I160" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="161">
@@ -5612,28 +5612,28 @@
         <v>160.0</v>
       </c>
       <c r="B161" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C161" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D161" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E161" t="n">
         <v>29.0</v>
       </c>
       <c r="F161" t="n">
-        <v>1300.0</v>
+        <v>1.0</v>
       </c>
       <c r="G161" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="H161" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="I161" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="162">
@@ -5641,28 +5641,28 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C162" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E162" t="n">
-        <v>1.0</v>
+        <v>29.0</v>
       </c>
       <c r="F162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I162" t="n">
         <v>3.0</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="163">
@@ -5670,28 +5670,28 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="C163" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D163" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F163" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0</v>
+        <v>303.0</v>
       </c>
       <c r="H163" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I163" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="164">
@@ -5699,25 +5699,25 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C164" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E164" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="F164" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G164" t="n">
-        <v>91.0</v>
+        <v>303.0</v>
       </c>
       <c r="H164" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="I164" t="n">
         <v>3.0</v>
@@ -5728,28 +5728,28 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C165" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D165" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E165" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="F165" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G165" t="n">
-        <v>91.0</v>
+        <v>303.0</v>
       </c>
       <c r="H165" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I165" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="166">
@@ -5757,28 +5757,28 @@
         <v>165.0</v>
       </c>
       <c r="B166" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C166" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D166" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E166" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="F166" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G166" t="n">
-        <v>91.0</v>
+        <v>303.0</v>
       </c>
       <c r="H166" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I166" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="167">
@@ -5786,28 +5786,28 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C167" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D167" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E167" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="F167" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G167" t="n">
-        <v>91.0</v>
+        <v>303.0</v>
       </c>
       <c r="H167" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I167" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="168">
@@ -5815,28 +5815,28 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C168" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D168" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E168" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="F168" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G168" t="n">
-        <v>91.0</v>
+        <v>303.0</v>
       </c>
       <c r="H168" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I168" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="169">
@@ -5844,28 +5844,28 @@
         <v>168.0</v>
       </c>
       <c r="B169" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C169" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D169" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E169" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="F169" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G169" t="n">
-        <v>91.0</v>
+        <v>303.0</v>
       </c>
       <c r="H169" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I169" t="n">
-        <v>1.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="170">
@@ -5873,28 +5873,28 @@
         <v>169.0</v>
       </c>
       <c r="B170" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C170" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D170" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E170" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="F170" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G170" t="n">
-        <v>91.0</v>
+        <v>303.0</v>
       </c>
       <c r="H170" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I170" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="171">
@@ -5902,28 +5902,28 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C171" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D171" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E171" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="F171" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G171" t="n">
-        <v>91.0</v>
+        <v>303.0</v>
       </c>
       <c r="H171" t="n">
-        <v>42.0</v>
+        <v>1.0</v>
       </c>
       <c r="I171" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="172">
@@ -5931,28 +5931,28 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C172" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D172" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E172" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="F172" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G172" t="n">
-        <v>91.0</v>
+        <v>303.0</v>
       </c>
       <c r="H172" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I172" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="173">
@@ -5960,28 +5960,28 @@
         <v>172.0</v>
       </c>
       <c r="B173" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C173" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D173" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E173" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F173" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G173" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H173" t="n">
-        <v>109.0</v>
+        <v>1.0</v>
       </c>
       <c r="I173" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="174">
@@ -5989,28 +5989,28 @@
         <v>173.0</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D174" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E174" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F174" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G174" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H174" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I174" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="175">
@@ -6018,25 +6018,25 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D175" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E175" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F175" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G175" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H175" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I175" t="n">
         <v>3.0</v>
@@ -6047,28 +6047,28 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D176" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E176" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F176" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G176" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H176" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I176" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="177">
@@ -6076,28 +6076,28 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D177" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E177" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F177" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G177" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H177" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I177" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="178">
@@ -6105,28 +6105,28 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D178" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E178" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F178" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G178" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H178" t="n">
-        <v>47.0</v>
+        <v>1.0</v>
       </c>
       <c r="I178" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="179">
@@ -6134,28 +6134,28 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D179" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E179" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F179" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G179" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H179" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I179" t="n">
         <v>3.0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="180">
@@ -6163,25 +6163,25 @@
         <v>179.0</v>
       </c>
       <c r="B180" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D180" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E180" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F180" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G180" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H180" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I180" t="n">
         <v>1.0</v>
@@ -6192,28 +6192,28 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C181" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D181" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E181" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F181" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G181" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H181" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="I181" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="182">
@@ -6221,28 +6221,28 @@
         <v>181.0</v>
       </c>
       <c r="B182" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C182" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D182" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E182" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F182" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G182" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H182" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I182" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="183">
@@ -6250,28 +6250,28 @@
         <v>182.0</v>
       </c>
       <c r="B183" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C183" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D183" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E183" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F183" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G183" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H183" t="n">
-        <v>114.0</v>
+        <v>1.0</v>
       </c>
       <c r="I183" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="184">
@@ -6279,28 +6279,28 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C184" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D184" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E184" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F184" t="n">
-        <v>505.0</v>
+        <v>1.0</v>
       </c>
       <c r="G184" t="n">
-        <v>91.0</v>
+        <v>52.0</v>
       </c>
       <c r="H184" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I184" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="185">
@@ -6308,28 +6308,28 @@
         <v>184.0</v>
       </c>
       <c r="B185" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C185" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D185" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E185" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F185" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G185" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H185" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I185" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="186">
@@ -6337,28 +6337,28 @@
         <v>185.0</v>
       </c>
       <c r="B186" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C186" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D186" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E186" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F186" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G186" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H186" t="n">
-        <v>47.0</v>
+        <v>1.0</v>
       </c>
       <c r="I186" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="187">
@@ -6366,28 +6366,28 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C187" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D187" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E187" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F187" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G187" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H187" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I187" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="188">
@@ -6395,28 +6395,28 @@
         <v>187.0</v>
       </c>
       <c r="B188" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C188" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D188" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E188" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F188" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G188" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H188" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I188" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="189">
@@ -6424,28 +6424,28 @@
         <v>188.0</v>
       </c>
       <c r="B189" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C189" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D189" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E189" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F189" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G189" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H189" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I189" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="190">
@@ -6453,28 +6453,28 @@
         <v>189.0</v>
       </c>
       <c r="B190" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C190" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D190" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E190" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F190" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G190" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H190" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I190" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="191">
@@ -6482,28 +6482,28 @@
         <v>190.0</v>
       </c>
       <c r="B191" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C191" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D191" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E191" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F191" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G191" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H191" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I191" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="192">
@@ -6511,28 +6511,28 @@
         <v>191.0</v>
       </c>
       <c r="B192" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C192" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D192" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E192" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F192" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G192" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H192" t="n">
-        <v>24.0</v>
+        <v>1.0</v>
       </c>
       <c r="I192" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="193">
@@ -6540,25 +6540,25 @@
         <v>192.0</v>
       </c>
       <c r="B193" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C193" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D193" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="E193" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F193" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G193" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H193" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I193" t="n">
         <v>1.0</v>
@@ -6569,28 +6569,28 @@
         <v>193.0</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C194" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D194" t="s">
         <v>234</v>
       </c>
       <c r="E194" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F194" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G194" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H194" t="n">
-        <v>35.0</v>
+        <v>1.0</v>
       </c>
       <c r="I194" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="195">
@@ -6598,28 +6598,28 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C195" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D195" t="s">
         <v>235</v>
       </c>
       <c r="E195" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F195" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G195" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H195" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I195" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="196">
@@ -6627,28 +6627,28 @@
         <v>195.0</v>
       </c>
       <c r="B196" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C196" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D196" t="s">
         <v>236</v>
       </c>
       <c r="E196" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F196" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G196" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H196" t="n">
-        <v>53.0</v>
+        <v>1.0</v>
       </c>
       <c r="I196" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="197">
@@ -6656,28 +6656,28 @@
         <v>196.0</v>
       </c>
       <c r="B197" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C197" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D197" t="s">
         <v>237</v>
       </c>
       <c r="E197" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F197" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G197" t="n">
-        <v>210.0</v>
+        <v>52.0</v>
       </c>
       <c r="H197" t="n">
-        <v>242.0</v>
+        <v>1.0</v>
       </c>
       <c r="I197" t="n">
-        <v>74.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="198">
@@ -6685,28 +6685,28 @@
         <v>197.0</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C198" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D198" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E198" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F198" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G198" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H198" t="n">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="I198" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="199">
@@ -6714,25 +6714,25 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C199" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D199" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E199" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F199" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G199" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H199" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I199" t="n">
         <v>1.0</v>
@@ -6743,28 +6743,28 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C200" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D200" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E200" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F200" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G200" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H200" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I200" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="201">
@@ -6772,28 +6772,28 @@
         <v>200.0</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C201" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D201" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E201" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F201" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G201" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H201" t="n">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
       <c r="I201" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="202">
@@ -6801,28 +6801,28 @@
         <v>201.0</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C202" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D202" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E202" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F202" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G202" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H202" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I202" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="203">
@@ -6830,25 +6830,25 @@
         <v>202.0</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C203" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D203" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E203" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F203" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G203" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H203" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I203" t="n">
         <v>1.0</v>
@@ -6859,28 +6859,28 @@
         <v>203.0</v>
       </c>
       <c r="B204" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C204" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D204" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E204" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F204" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G204" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H204" t="n">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
       <c r="I204" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="205">
@@ -6888,28 +6888,28 @@
         <v>204.0</v>
       </c>
       <c r="B205" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C205" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D205" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E205" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F205" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G205" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H205" t="n">
-        <v>99.0</v>
+        <v>1.0</v>
       </c>
       <c r="I205" t="n">
-        <v>42.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="206">
@@ -6917,25 +6917,25 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C206" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D206" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E206" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F206" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G206" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H206" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I206" t="n">
         <v>1.0</v>
@@ -6946,25 +6946,25 @@
         <v>206.0</v>
       </c>
       <c r="B207" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C207" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D207" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E207" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F207" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G207" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H207" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I207" t="n">
         <v>1.0</v>
@@ -6975,25 +6975,25 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C208" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D208" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E208" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F208" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G208" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H208" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I208" t="n">
         <v>1.0</v>
@@ -7004,28 +7004,28 @@
         <v>208.0</v>
       </c>
       <c r="B209" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C209" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D209" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E209" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F209" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G209" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H209" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="I209" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="210">
@@ -7033,28 +7033,28 @@
         <v>209.0</v>
       </c>
       <c r="B210" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C210" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D210" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E210" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F210" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G210" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H210" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="I210" t="n">
-        <v>3.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="211">
@@ -7062,28 +7062,28 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C211" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D211" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E211" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F211" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G211" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H211" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="I211" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="212">
@@ -7091,28 +7091,28 @@
         <v>211.0</v>
       </c>
       <c r="B212" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C212" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D212" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E212" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F212" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G212" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H212" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="I212" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="213">
@@ -7120,28 +7120,28 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C213" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D213" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E213" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F213" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G213" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H213" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I213" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="214">
@@ -7149,28 +7149,28 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C214" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D214" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E214" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F214" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G214" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H214" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I214" t="n">
         <v>3.0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="215">
@@ -7178,25 +7178,25 @@
         <v>214.0</v>
       </c>
       <c r="B215" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C215" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D215" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E215" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F215" t="n">
-        <v>733.0</v>
+        <v>1.0</v>
       </c>
       <c r="G215" t="n">
-        <v>210.0</v>
+        <v>137.0</v>
       </c>
       <c r="H215" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I215" t="n">
         <v>1.0</v>
@@ -7207,25 +7207,25 @@
         <v>215.0</v>
       </c>
       <c r="B216" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C216" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="D216" t="s">
         <v>257</v>
       </c>
       <c r="E216" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="F216" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="G216" t="n">
-        <v>2.0</v>
+        <v>137.0</v>
       </c>
       <c r="H216" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I216" t="n">
         <v>1.0</v>
@@ -7236,25 +7236,25 @@
         <v>216.0</v>
       </c>
       <c r="B217" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C217" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="D217" t="s">
         <v>258</v>
       </c>
       <c r="E217" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="F217" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="G217" t="n">
-        <v>2.0</v>
+        <v>137.0</v>
       </c>
       <c r="H217" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I217" t="n">
         <v>1.0</v>
@@ -7265,25 +7265,25 @@
         <v>217.0</v>
       </c>
       <c r="B218" t="s">
+        <v>178</v>
+      </c>
+      <c r="C218" t="s">
+        <v>238</v>
+      </c>
+      <c r="D218" t="s">
         <v>259</v>
       </c>
-      <c r="C218" t="s">
-        <v>260</v>
-      </c>
-      <c r="D218" t="s">
-        <v>261</v>
-      </c>
       <c r="E218" t="n">
-        <v>3.0</v>
+        <v>32.0</v>
       </c>
       <c r="F218" t="n">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
       <c r="G218" t="n">
-        <v>4.0</v>
+        <v>137.0</v>
       </c>
       <c r="H218" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I218" t="n">
         <v>1.0</v>
@@ -7294,28 +7294,28 @@
         <v>218.0</v>
       </c>
       <c r="B219" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C219" t="s">
+        <v>238</v>
+      </c>
+      <c r="D219" t="s">
         <v>260</v>
       </c>
-      <c r="D219" t="s">
-        <v>262</v>
-      </c>
       <c r="E219" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I219" t="n">
         <v>3.0</v>
-      </c>
-      <c r="F219" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G219" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H219" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="220">
@@ -7323,28 +7323,28 @@
         <v>219.0</v>
       </c>
       <c r="B220" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C220" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D220" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E220" t="n">
-        <v>3.0</v>
+        <v>32.0</v>
       </c>
       <c r="F220" t="n">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
       <c r="G220" t="n">
-        <v>4.0</v>
+        <v>137.0</v>
       </c>
       <c r="H220" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I220" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="221">
@@ -7352,28 +7352,28 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C221" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="D221" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E221" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="F221" t="n">
-        <v>38.0</v>
+        <v>1.0</v>
       </c>
       <c r="G221" t="n">
-        <v>3.0</v>
+        <v>137.0</v>
       </c>
       <c r="H221" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I221" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="222">
@@ -7381,28 +7381,28 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C222" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="D222" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="E222" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="F222" t="n">
-        <v>38.0</v>
+        <v>1.0</v>
       </c>
       <c r="G222" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I222" t="n">
         <v>3.0</v>
-      </c>
-      <c r="H222" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="223">
@@ -7410,28 +7410,28 @@
         <v>222.0</v>
       </c>
       <c r="B223" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C223" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="D223" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E223" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F223" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0</v>
+        <v>137.0</v>
       </c>
       <c r="H223" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I223" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="224">
@@ -7439,28 +7439,28 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C224" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="D224" t="s">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="E224" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="F224" t="n">
-        <v>165.0</v>
+        <v>1.0</v>
       </c>
       <c r="G224" t="n">
-        <v>44.0</v>
+        <v>137.0</v>
       </c>
       <c r="H224" t="n">
-        <v>36.0</v>
+        <v>1.0</v>
       </c>
       <c r="I224" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="225">
@@ -7468,25 +7468,25 @@
         <v>224.0</v>
       </c>
       <c r="B225" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C225" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="D225" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E225" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="F225" t="n">
-        <v>165.0</v>
+        <v>1.0</v>
       </c>
       <c r="G225" t="n">
-        <v>44.0</v>
+        <v>137.0</v>
       </c>
       <c r="H225" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I225" t="n">
         <v>1.0</v>
@@ -7497,28 +7497,28 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C226" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="D226" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E226" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="F226" t="n">
-        <v>165.0</v>
+        <v>1.0</v>
       </c>
       <c r="G226" t="n">
-        <v>44.0</v>
+        <v>137.0</v>
       </c>
       <c r="H226" t="n">
-        <v>102.0</v>
+        <v>1.0</v>
       </c>
       <c r="I226" t="n">
-        <v>33.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="227">
@@ -7526,28 +7526,28 @@
         <v>226.0</v>
       </c>
       <c r="B227" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C227" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="D227" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E227" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="F227" t="n">
-        <v>165.0</v>
+        <v>1.0</v>
       </c>
       <c r="G227" t="n">
-        <v>44.0</v>
+        <v>137.0</v>
       </c>
       <c r="H227" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="I227" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="228">
@@ -7555,25 +7555,25 @@
         <v>227.0</v>
       </c>
       <c r="B228" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C228" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="D228" t="s">
-        <v>273</v>
+        <v>193</v>
       </c>
       <c r="E228" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="F228" t="n">
-        <v>165.0</v>
+        <v>1.0</v>
       </c>
       <c r="G228" t="n">
-        <v>44.0</v>
+        <v>137.0</v>
       </c>
       <c r="H228" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I228" t="n">
         <v>1.0</v>
@@ -7584,25 +7584,25 @@
         <v>228.0</v>
       </c>
       <c r="B229" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C229" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="D229" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E229" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="F229" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G229" t="n">
-        <v>249.0</v>
+        <v>137.0</v>
       </c>
       <c r="H229" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I229" t="n">
         <v>1.0</v>
@@ -7613,28 +7613,28 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C230" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D230" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E230" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="F230" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G230" t="n">
-        <v>249.0</v>
+        <v>0.0</v>
       </c>
       <c r="H230" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="I230" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="231">
@@ -7642,28 +7642,28 @@
         <v>230.0</v>
       </c>
       <c r="B231" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C231" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D231" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E231" t="n">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="F231" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G231" t="n">
-        <v>249.0</v>
+        <v>11.0</v>
       </c>
       <c r="H231" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I231" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="232">
@@ -7671,28 +7671,28 @@
         <v>231.0</v>
       </c>
       <c r="B232" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C232" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D232" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E232" t="n">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="F232" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G232" t="n">
-        <v>249.0</v>
+        <v>11.0</v>
       </c>
       <c r="H232" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="I232" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="233">
@@ -7700,28 +7700,28 @@
         <v>232.0</v>
       </c>
       <c r="B233" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C233" t="s">
+        <v>271</v>
+      </c>
+      <c r="D233" t="s">
         <v>274</v>
       </c>
-      <c r="D233" t="s">
-        <v>279</v>
-      </c>
       <c r="E233" t="n">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="F233" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G233" t="n">
-        <v>249.0</v>
+        <v>11.0</v>
       </c>
       <c r="H233" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I233" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="234">
@@ -7729,28 +7729,28 @@
         <v>233.0</v>
       </c>
       <c r="B234" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C234" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D234" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E234" t="n">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="F234" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G234" t="n">
-        <v>249.0</v>
+        <v>11.0</v>
       </c>
       <c r="H234" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I234" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="235">
@@ -7758,28 +7758,28 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C235" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D235" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E235" t="n">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="F235" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G235" t="n">
-        <v>249.0</v>
+        <v>11.0</v>
       </c>
       <c r="H235" t="n">
-        <v>37.0</v>
+        <v>1.0</v>
       </c>
       <c r="I235" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="236">
@@ -7787,28 +7787,28 @@
         <v>235.0</v>
       </c>
       <c r="B236" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C236" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D236" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E236" t="n">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="F236" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G236" t="n">
-        <v>249.0</v>
+        <v>11.0</v>
       </c>
       <c r="H236" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I236" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="237">
@@ -7816,28 +7816,28 @@
         <v>236.0</v>
       </c>
       <c r="B237" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C237" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D237" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E237" t="n">
-        <v>24.0</v>
+        <v>1.0</v>
       </c>
       <c r="F237" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G237" t="n">
-        <v>249.0</v>
+        <v>1.0</v>
       </c>
       <c r="H237" t="n">
-        <v>35.0</v>
+        <v>1.0</v>
       </c>
       <c r="I237" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="238">
@@ -7845,28 +7845,28 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C238" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D238" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E238" t="n">
-        <v>24.0</v>
+        <v>4.0</v>
       </c>
       <c r="F238" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G238" t="n">
-        <v>249.0</v>
+        <v>4.0</v>
       </c>
       <c r="H238" t="n">
-        <v>63.0</v>
+        <v>1.0</v>
       </c>
       <c r="I238" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="239">
@@ -7874,28 +7874,28 @@
         <v>238.0</v>
       </c>
       <c r="B239" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C239" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D239" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E239" t="n">
-        <v>24.0</v>
+        <v>4.0</v>
       </c>
       <c r="F239" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G239" t="n">
-        <v>249.0</v>
+        <v>4.0</v>
       </c>
       <c r="H239" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I239" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="240">
@@ -7903,28 +7903,28 @@
         <v>239.0</v>
       </c>
       <c r="B240" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C240" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D240" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E240" t="n">
-        <v>24.0</v>
+        <v>4.0</v>
       </c>
       <c r="F240" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G240" t="n">
-        <v>249.0</v>
+        <v>4.0</v>
       </c>
       <c r="H240" t="n">
-        <v>131.0</v>
+        <v>1.0</v>
       </c>
       <c r="I240" t="n">
-        <v>103.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="241">
@@ -7932,28 +7932,28 @@
         <v>240.0</v>
       </c>
       <c r="B241" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C241" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D241" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E241" t="n">
-        <v>24.0</v>
+        <v>4.0</v>
       </c>
       <c r="F241" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G241" t="n">
-        <v>249.0</v>
+        <v>4.0</v>
       </c>
       <c r="H241" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I241" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="242">
@@ -7961,28 +7961,28 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C242" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="D242" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E242" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="F242" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G242" t="n">
-        <v>249.0</v>
+        <v>0.0</v>
       </c>
       <c r="H242" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="I242" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="243">
@@ -7990,28 +7990,28 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C243" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D243" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E243" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F243" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G243" t="n">
-        <v>249.0</v>
+        <v>47.0</v>
       </c>
       <c r="H243" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="I243" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="244">
@@ -8019,28 +8019,28 @@
         <v>243.0</v>
       </c>
       <c r="B244" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C244" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D244" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E244" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F244" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G244" t="n">
-        <v>249.0</v>
+        <v>47.0</v>
       </c>
       <c r="H244" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="I244" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="245">
@@ -8048,28 +8048,28 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C245" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D245" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E245" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F245" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G245" t="n">
-        <v>249.0</v>
+        <v>47.0</v>
       </c>
       <c r="H245" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="I245" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="246">
@@ -8077,28 +8077,28 @@
         <v>245.0</v>
       </c>
       <c r="B246" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C246" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D246" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E246" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F246" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G246" t="n">
-        <v>249.0</v>
+        <v>47.0</v>
       </c>
       <c r="H246" t="n">
-        <v>56.0</v>
+        <v>1.0</v>
       </c>
       <c r="I246" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="247">
@@ -8106,28 +8106,28 @@
         <v>246.0</v>
       </c>
       <c r="B247" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C247" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D247" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E247" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F247" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G247" t="n">
-        <v>249.0</v>
+        <v>47.0</v>
       </c>
       <c r="H247" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="I247" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="248">
@@ -8135,28 +8135,28 @@
         <v>247.0</v>
       </c>
       <c r="B248" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C248" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D248" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E248" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F248" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G248" t="n">
-        <v>249.0</v>
+        <v>47.0</v>
       </c>
       <c r="H248" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="I248" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="249">
@@ -8164,28 +8164,28 @@
         <v>248.0</v>
       </c>
       <c r="B249" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C249" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D249" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E249" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F249" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G249" t="n">
-        <v>249.0</v>
+        <v>47.0</v>
       </c>
       <c r="H249" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="I249" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="250">
@@ -8193,28 +8193,28 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C250" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D250" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E250" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F250" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G250" t="n">
-        <v>249.0</v>
+        <v>47.0</v>
       </c>
       <c r="H250" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I250" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="251">
@@ -8222,28 +8222,28 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C251" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D251" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="E251" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F251" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G251" t="n">
-        <v>249.0</v>
+        <v>47.0</v>
       </c>
       <c r="H251" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="I251" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="252">
@@ -8251,28 +8251,28 @@
         <v>251.0</v>
       </c>
       <c r="B252" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C252" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D252" t="s">
         <v>297</v>
       </c>
       <c r="E252" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F252" t="n">
-        <v>613.0</v>
+        <v>1.0</v>
       </c>
       <c r="G252" t="n">
-        <v>249.0</v>
+        <v>47.0</v>
       </c>
       <c r="H252" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="I252" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
